--- a/EA_QUEST3/EA_QUEST3_rep/Tables.xlsx
+++ b/EA_QUEST3/EA_QUEST3_rep/Tables.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33689\Documents\GitHub\Exam-Applied-Macroeconomics\EA_QUEST3\EA_QUEST3_rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4C4A26-C778-4D22-917A-CDC6191EF7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47BE60-704F-4FAD-9E8C-4780AC71B718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3150" windowWidth="10065" windowHeight="8325" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SR" sheetId="1" r:id="rId1"/>
     <sheet name="LR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Quarter 1</t>
   </si>
@@ -85,9 +85,6 @@
     </r>
   </si>
   <si>
-    <t>Year 1</t>
-  </si>
-  <si>
     <t>Year 2</t>
   </si>
   <si>
@@ -97,6 +94,12 @@
     <t>Year 4</t>
   </si>
   <si>
+    <t>Image to copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image to copy: </t>
+  </si>
+  <si>
     <t>5%</t>
   </si>
   <si>
@@ -169,154 +172,7 @@
     <t>95%</t>
   </si>
   <si>
-    <t>Image to copy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image to copy: </t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
+    <t>Year 5</t>
   </si>
 </sst>
 </file>
@@ -354,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -371,7 +227,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -381,7 +237,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -390,10 +246,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -402,18 +258,18 @@
       <left/>
       <right/>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -421,11 +277,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,37 +290,37 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -474,7 +330,7 @@
     <border>
       <left/>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -482,33 +338,33 @@
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -516,89 +372,87 @@
     <border>
       <left/>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,7 +471,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -646,7 +500,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s1045"/>
+                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s1047"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -687,7 +541,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -716,7 +570,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s2066"/>
+                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s2068"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1055,31 +909,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="false" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5" style="1" customWidth="true"/>
-    <col min="4" max="4" width="6" style="1" customWidth="true"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="true"/>
-    <col min="6" max="6" width="5" style="1" customWidth="true"/>
-    <col min="7" max="7" width="6" style="1" customWidth="true"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="true"/>
-    <col min="9" max="9" width="5" style="1" customWidth="true"/>
-    <col min="10" max="10" width="6" style="1" customWidth="true"/>
-    <col min="11" max="11" width="5.28515625" style="1" customWidth="true"/>
-    <col min="12" max="12" width="5" style="1" customWidth="true"/>
-    <col min="13" max="13" width="6" style="1" customWidth="true"/>
-    <col min="14" max="14" width="5.28515625" style="1" customWidth="true"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" thickBot="true"/>
-    <row r="2" ht="15" thickTop="true">
+    <row r="1" spans="2:14" ht="15" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15" thickTop="1">
       <c r="B2" s="4"/>
       <c r="C2" s="21" t="s">
         <v>0</v>
@@ -1102,46 +956,46 @@
       <c r="M2" s="22"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:14">
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:14">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1036,7 @@
         <v>0.5807628565357239</v>
       </c>
     </row>
-    <row r="5" ht="15" thickBot="true">
+    <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1223,10 +1077,10 @@
         <v>0.68178319930582498</v>
       </c>
     </row>
-    <row r="6" ht="15" thickTop="true"/>
-    <row r="11">
+    <row r="6" spans="2:14" ht="15" thickTop="1"/>
+    <row r="11" spans="2:14">
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1092,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:N3" numberStoredAsText="true"/>
+    <ignoredError sqref="C3:N3" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1249,31 +1103,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D417769-54D5-4768-BDEF-383B95488C3B}">
   <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView showGridLines="false" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5" style="1" customWidth="true"/>
-    <col min="4" max="4" width="6" style="1" customWidth="true"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="true"/>
-    <col min="6" max="6" width="5" style="1" customWidth="true"/>
-    <col min="7" max="7" width="6" style="1" customWidth="true"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="true"/>
-    <col min="9" max="9" width="5" style="1" customWidth="true"/>
-    <col min="10" max="10" width="6" style="1" customWidth="true"/>
-    <col min="11" max="11" width="5.28515625" style="1" customWidth="true"/>
-    <col min="12" max="12" width="5.7109375" style="1" customWidth="true"/>
-    <col min="13" max="13" width="6" style="1" customWidth="true"/>
-    <col min="14" max="14" width="5.28515625" style="1" customWidth="true"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" thickBot="true"/>
-    <row r="2" ht="15" thickTop="true">
+    <row r="1" spans="2:14" ht="15" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15" thickTop="1">
       <c r="B2" s="4"/>
       <c r="C2" s="25" t="s">
         <v>6</v>
@@ -1291,51 +1145,51 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="22" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="M2" s="22"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:14">
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:14">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1358,7 +1212,7 @@
         <v>0.46673743110511556</v>
       </c>
       <c r="I4" s="9">
-        <v>0.093383214782257223</v>
+        <v>9.3383214782257223E-2</v>
       </c>
       <c r="J4" s="10">
         <v>0.30800854437669201</v>
@@ -1367,7 +1221,7 @@
         <v>0.50558887402455399</v>
       </c>
       <c r="L4" s="12">
-        <v>-0.026547750822823183</v>
+        <v>-2.6547750822823183E-2</v>
       </c>
       <c r="M4" s="10">
         <v>0.30176393824504638</v>
@@ -1376,7 +1230,7 @@
         <v>0.58266370143984081</v>
       </c>
     </row>
-    <row r="5" ht="15" thickBot="true">
+    <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1417,10 +1271,10 @@
         <v>0.5624219957867127</v>
       </c>
     </row>
-    <row r="6" ht="15" thickTop="true"/>
-    <row r="9">
+    <row r="6" spans="2:14" ht="15" thickTop="1"/>
+    <row r="9" spans="2:14">
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +1286,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:N3" numberStoredAsText="true"/>
+    <ignoredError sqref="C3:N3" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
